--- a/biology/Médecine/Choriorétinopathie_séreuse_centrale/Choriorétinopathie_séreuse_centrale.xlsx
+++ b/biology/Médecine/Choriorétinopathie_séreuse_centrale/Choriorétinopathie_séreuse_centrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinopathie_s%C3%A9reuse_centrale</t>
+          <t>Choriorétinopathie_séreuse_centrale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La choriorétinopathie séreuse centrale (CRSC) est une affection rétinienne entrainant des troubles de la vision, dont la lésion la plus caractéristique est le décollement séreux rétinien (DSR), une infiltration de liquide entre l'épithélium pigmentaire et les couches supérieures de la rétine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La choriorétinopathie séreuse centrale (CRSC) est une affection rétinienne entrainant des troubles de la vision, dont la lésion la plus caractéristique est le décollement séreux rétinien (DSR), une infiltration de liquide entre l'épithélium pigmentaire et les couches supérieures de la rétine.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinopathie_s%C3%A9reuse_centrale</t>
+          <t>Choriorétinopathie_séreuse_centrale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Introduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La CRSC est une affection oculaire uni ou bilatérale pouvant occasionner des troubles de la vision. Elle est caractérisée par un décollement séreux aigu de la neurorétine (DSR), lié à une zone de passage de liquide de la choroïde vers l'espace sous-rétinien. [2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La CRSC est une affection oculaire uni ou bilatérale pouvant occasionner des troubles de la vision. Elle est caractérisée par un décollement séreux aigu de la neurorétine (DSR), lié à une zone de passage de liquide de la choroïde vers l'espace sous-rétinien. 
 Il semblerait que la choroïde soit le siège d'une vasodilatation et d'une hyperperméabilité entraînant son épaississement non seulement sur l'œil atteint mais également sur l'œil controlatéral, suggérant une choroïdopathie sous-jacente à la maladie. 
 La CRSC est une maladie qui touche plus fréquemment les hommes d'âge moyen et est provoquée et/ou aggravée par la corticothérapie. Dans la majorité des cas, l’issue est favorable et le décollement séreux rétinien se réapplique de façon spontanée sans aucun traitement. 
-Les récidives, la bilatérisation et/ou le passage à la chronicité conduiraient à l’Epithéliopathie rétinienne diffuse, forme beaucoup plus sévère de la maladie, pouvant conduire à une altération permanente de la fonction visuelle. De multiples traitements ont été proposés : le laser d'un point de fuite extra fovéolaire et la photothérapie dynamique à fluence complète ou demi-fluence sont les modalités thérapeutiques dont l'efficacité a été démontrée. D'autres traitements médicamenteux sont à l'étude et méritent validation[3].
+Les récidives, la bilatérisation et/ou le passage à la chronicité conduiraient à l’Epithéliopathie rétinienne diffuse, forme beaucoup plus sévère de la maladie, pouvant conduire à une altération permanente de la fonction visuelle. De multiples traitements ont été proposés : le laser d'un point de fuite extra fovéolaire et la photothérapie dynamique à fluence complète ou demi-fluence sont les modalités thérapeutiques dont l'efficacité a été démontrée. D'autres traitements médicamenteux sont à l'étude et méritent validation.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinopathie_s%C3%A9reuse_centrale</t>
+          <t>Choriorétinopathie_séreuse_centrale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie a été initialement décrite par Albrecht von Gräfe en 1866, caractérisée par Alfred Edward Maumenee (en), puis par John Donald MacIntyre Gass (en). En 1987, le Dr Lawrence Yannuzzi (en) a établi un lien entre la CRSC et la personnalité de type A[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie a été initialement décrite par Albrecht von Gräfe en 1866, caractérisée par Alfred Edward Maumenee (en), puis par John Donald MacIntyre Gass (en). En 1987, le Dr Lawrence Yannuzzi (en) a établi un lien entre la CRSC et la personnalité de type A.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinopathie_s%C3%A9reuse_centrale</t>
+          <t>Choriorétinopathie_séreuse_centrale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +592,14 @@
           <t>Epidémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La CRSC atteint plus fréquemment les hommes d'âge moyen. l'exposition récente à un stress et une personnalité de type A  (caractérisée par un surinvestissement professionnel et une forte exigence de soi) sont les facteurs de risque les plus reconnus de CRSC, mais d'autres facteurs favorisants sont progressivement identifiés.
 De nombreuses CRSC sont probablement non diagnostiquées car asymptomatique quand le DSR est situé en région extrafovéolaire. 
-On estime que la CRSC est la quatrième maladie rétinienne en termes de fréquence, après la dégénérescence maculaire liée à l'âge (DMLA), la rétinopathie diabétique et l'occlusion de branche de veine rétinienne[5].
-Chez la femme, la maladie survient a un âge plus tardif (entre 40 et 55 ans )[6].
+On estime que la CRSC est la quatrième maladie rétinienne en termes de fréquence, après la dégénérescence maculaire liée à l'âge (DMLA), la rétinopathie diabétique et l'occlusion de branche de veine rétinienne.
+Chez la femme, la maladie survient a un âge plus tardif (entre 40 et 55 ans ).
 Chez les patients de plus de 60 ans, le diagnostic différentiel avec une DMLA est parfois délicat.
 </t>
         </is>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinopathie_s%C3%A9reuse_centrale</t>
+          <t>Choriorétinopathie_séreuse_centrale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,18 +629,20 @@
           <t>Facteur de risque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La corticothérapie (intranasale, inhalée, topique, intra-articulaire, etc.) ou générale (orale ou intraveineuse)[7]
-La Personnalité de type A[4]
-La maladie de Cushing[8]
-La grossesse (3e trimestre)[9]
-l'Hypertension artérielle[10]
-Certains médicaments de type anxiolytiques / antidépresseurs[11]
-Certains médicaments à effet vasodynamiques (épinéphrine, inhibiteurs de la phosphodiestérase[12])[13]
-Le syndrome d’apnée du sommeil[14]
-Les infections à Helicobacter pylori[15],[16]
-Les antécédents familiaux[17].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La corticothérapie (intranasale, inhalée, topique, intra-articulaire, etc.) ou générale (orale ou intraveineuse)
+La Personnalité de type A
+La maladie de Cushing
+La grossesse (3e trimestre)
+l'Hypertension artérielle
+Certains médicaments de type anxiolytiques / antidépresseurs
+Certains médicaments à effet vasodynamiques (épinéphrine, inhibiteurs de la phosphodiestérase)
+Le syndrome d’apnée du sommeil
+Les infections à Helicobacter pylori,
+Les antécédents familiaux.</t>
         </is>
       </c>
     </row>
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinopathie_s%C3%A9reuse_centrale</t>
+          <t>Choriorétinopathie_séreuse_centrale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,7 +670,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La symptomatologie est variable d’un patient à l’autre, allant de cas asymptomatique à une baisse permanente de l’acuité visuelle
 Quand elle est symptomatique, la CRSC se manifeste le plus souvent par un syndrome maculaire sur un œil blanc et indolore. Les différents symptômes que l’on retrouve sont :
@@ -659,7 +681,7 @@
 des métamorphopsies, 
 des dyschromatopsies, 
 des micropsies 
-une diminution de la sensibilité aux contrastes est fréquemment retrouvée[18]. 
+une diminution de la sensibilité aux contrastes est fréquemment retrouvée. 
 Dans les formes aiguës, l'acuité visuelle est en général peu altérée (oscillant entre 7 et 10/10). Elle est améliorée après la correction d'une hypermétropie de une à trois dioptries, en raison du déplacement antérieur de la neurorétine fovéolaire 3. Dans les formes chroniques, la vision peut être profondément diminuée de façon permanente (1/10 ou moins).
 </t>
         </is>
@@ -671,7 +693,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinopathie_s%C3%A9reuse_centrale</t>
+          <t>Choriorétinopathie_séreuse_centrale</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -689,7 +711,9 @@
           <t>Examen clinique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'examen l’œil est blanc, non inflammatoire et non douloureux. Le fond d’œil montre un soulèvement maculaire, une bulle qui peut être plus ou moins étendue (de 1 à 3 diamètres papillaires). Si elle est minime, il faudra un examen très attentif pour la déceler. On note parfois des points jaune chamois entre le neuro-épithélium et l'épithélium pigmenté.
 Il ne doit pas y avoir d'hémorragie à ce niveau. Si tel est le cas, il faut s'orienter vers un autre diagnostic.
@@ -703,7 +727,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinopathie_s%C3%A9reuse_centrale</t>
+          <t>Choriorétinopathie_séreuse_centrale</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -721,7 +745,9 @@
           <t>Angiographie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'angiographie était un examen essentiel dans le diagnostic et la surveillance d'une CRSC. Aujourd'hui on lui préfère l'OCT pour sa rapidité d'exécution et son côté non invasif. 
 L'angiographie reste cependant utile pour localiser le point de fuite lorsqu'un traitement par photocoagulation au laser est envisagé.
@@ -742,7 +768,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinopathie_s%C3%A9reuse_centrale</t>
+          <t>Choriorétinopathie_séreuse_centrale</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -760,7 +786,9 @@
           <t>Tomographie en cohérence optique (TCO)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La tomographie en cohérence optique est un examen récent qui permet de réaliser une coupe quasi histologique de la rétine et de suivre l'évolution de la bulle maculaire. Son innocuité et sa facilité d'utilisation en feront sans doute un élément important de l'exploration des CRSC.
 </t>
@@ -773,7 +801,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinopathie_s%C3%A9reuse_centrale</t>
+          <t>Choriorétinopathie_séreuse_centrale</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -791,7 +819,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La CRSC peut être confondue avec :
 une fossette colobomateuse de la papille. Le DSNE est de siège intermaculopapillaire et il n'y a pas de point de fuite à l'angiographie.
@@ -809,7 +839,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chorior%C3%A9tinopathie_s%C3%A9reuse_centrale</t>
+          <t>Choriorétinopathie_séreuse_centrale</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -827,7 +857,9 @@
           <t>Évolution et traitement</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">L'évolution spontanée se fera en principe (90 % des cas) vers une guérison spontanée, sans traitement. On peut parfois prescrire des collyres anti-inflammatoires. Il faut compter trois à quatre mois pour la résorption de la bulle et l'amélioration de la vision.
 Une récidive est possible, quelques mois ou quelques années plus tard (30 % des cas).
